--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_3_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_3_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2466112.317218288</v>
+        <v>2459095.302326577</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9646701.581308989</v>
+        <v>9646701.581308991</v>
       </c>
     </row>
     <row r="11">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>163.8950372953901</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -679,7 +679,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>132.6448632400267</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -825,22 +825,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,13 +861,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>128.7835007017903</v>
       </c>
       <c r="S4" t="n">
-        <v>145.0955337074621</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -876,10 +876,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -901,16 +901,16 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>390.7529822392023</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -943,22 +943,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>93.67762975589579</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>59.66385641544537</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1104,13 +1104,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>63.01667685547804</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1135,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>147.5685917223953</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1195,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>96.3616331761031</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1290,31 +1290,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>30.60408762095418</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>8.8322762331325</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>115.526976800218</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1584,19 +1584,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>98.1797470077187</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1773,19 +1773,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>89.31984007417549</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>12.51805824073733</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1858,13 +1858,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896922</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,22 +2055,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>139.153727875004</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>143.2172878001797</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U20" t="n">
         <v>251.078595249801</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2247,16 +2247,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>115.526976800218</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>89.22126267828951</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2481,22 +2481,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>119.903967527677</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>203.8435192151921</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2614,7 +2614,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>23.72668963665254</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2724,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2760,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>139.1537278750042</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -3000,16 +3000,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>224.895256723152</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>169.7438101404427</v>
       </c>
     </row>
     <row r="32">
@@ -3034,7 +3034,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620682</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>141.402762432929</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,22 +3240,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>225.1809026611662</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3274,7 +3274,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3426,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>26.04868145380665</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>143.2925104849749</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3663,13 +3663,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>115.5269768002183</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
@@ -3723,13 +3723,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>168.4262814687308</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3900,25 +3900,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>80.5458102665328</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
@@ -3954,16 +3954,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>79.51226215878116</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>5.562624396425565</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
@@ -4194,13 +4194,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,31 +4306,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2476.569858826099</v>
+        <v>1568.353113282533</v>
       </c>
       <c r="C2" t="n">
-        <v>2107.607341885688</v>
+        <v>1568.353113282533</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W2" t="n">
-        <v>2642.120401548716</v>
+        <v>2331.958203519424</v>
       </c>
       <c r="X2" t="n">
-        <v>2642.120401548716</v>
+        <v>1958.492445258345</v>
       </c>
       <c r="Y2" t="n">
-        <v>2642.120401548716</v>
+        <v>1568.353113282533</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4421,13 +4421,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>552.1509199010035</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>552.1509199010035</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>552.1509199010035</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>404.2378263186104</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="S4" t="n">
-        <v>552.1509199010035</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="T4" t="n">
-        <v>552.1509199010035</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="U4" t="n">
-        <v>552.1509199010035</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V4" t="n">
-        <v>552.1509199010035</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W4" t="n">
-        <v>552.1509199010035</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>552.1509199010035</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>552.1509199010035</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1721.819089287443</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="C5" t="n">
-        <v>1721.819089287443</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="D5" t="n">
-        <v>1363.553390680693</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>929.3036598490722</v>
       </c>
       <c r="G5" t="n">
         <v>534.603677789272</v>
@@ -4567,13 +4567,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2426.347734892094</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2095.284847548523</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W5" t="n">
-        <v>2095.284847548523</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X5" t="n">
-        <v>1721.819089287443</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y5" t="n">
-        <v>1721.819089287443</v>
+        <v>936.2491605982757</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4667,22 +4667,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>222.8791647482714</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4752,25 +4752,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>286.5323736931987</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>222.8791647482714</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>222.8791647482714</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>222.8791647482714</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>222.8791647482714</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.8791647482714</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1512.612574238668</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>1512.612574238668</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>1512.612574238668</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4831,25 +4831,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W8" t="n">
-        <v>2289.351746278601</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X8" t="n">
-        <v>2289.351746278601</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y8" t="n">
-        <v>1899.21241430279</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="9">
@@ -4883,16 +4883,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>256.4340909802015</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>256.4340909802015</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>256.4340909802015</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>108.5209973978084</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>108.5209973978084</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>108.5209973978084</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4989,25 +4989,25 @@
         <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>484.4236418782189</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>484.4236418782189</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>484.4236418782189</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V10" t="n">
-        <v>484.4236418782189</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W10" t="n">
-        <v>484.4236418782189</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X10" t="n">
-        <v>256.4340909802015</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y10" t="n">
-        <v>256.4340909802015</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="11">
@@ -5020,16 +5020,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D11" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
@@ -5038,49 +5038,49 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
         <v>3205.060556590537</v>
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>143.7578250841092</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>292.8275092861691</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>539.5926371926332</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>846.912770472595</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>1651.324348736746</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P12" t="n">
-        <v>2317.834075963124</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q12" t="n">
         <v>2612.943493278838</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>994.3109288932102</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="C13" t="n">
-        <v>825.3747459653033</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="D13" t="n">
-        <v>675.2581065529675</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="E13" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U13" t="n">
-        <v>1275.130855347408</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V13" t="n">
-        <v>1275.130855347408</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W13" t="n">
-        <v>1275.130855347408</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="X13" t="n">
-        <v>1275.130855347408</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="Y13" t="n">
-        <v>1175.95939372345</v>
+        <v>213.9110074201021</v>
       </c>
     </row>
     <row r="14">
@@ -5275,13 +5275,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5290,7 +5290,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5299,10 +5299,10 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231264</v>
@@ -5314,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5354,31 +5354,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>684.3745488722933</v>
+        <v>506.0324822735073</v>
       </c>
       <c r="C16" t="n">
-        <v>684.3745488722933</v>
+        <v>506.0324822735073</v>
       </c>
       <c r="D16" t="n">
-        <v>684.3745488722933</v>
+        <v>506.0324822735073</v>
       </c>
       <c r="E16" t="n">
-        <v>536.4614552899002</v>
+        <v>506.0324822735073</v>
       </c>
       <c r="F16" t="n">
-        <v>389.5715077919898</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G16" t="n">
-        <v>221.3961861118104</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5442,10 +5442,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V16" t="n">
-        <v>1133.156678913841</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W16" t="n">
-        <v>1133.156678913841</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X16" t="n">
-        <v>905.1671280158234</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y16" t="n">
-        <v>684.3745488722933</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
     <row r="17">
@@ -5494,67 +5494,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
         <v>3205.060556590537</v>
@@ -5591,25 +5591,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M18" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>528.105874218302</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>1075.21084526296</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V19" t="n">
-        <v>930.5469181920719</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W19" t="n">
-        <v>930.5469181920719</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>930.5469181920719</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y19" t="n">
-        <v>709.7543390485417</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5737,49 +5737,49 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
@@ -5788,16 +5788,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5828,25 +5828,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>563.7235151749151</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C22" t="n">
-        <v>563.7235151749151</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>563.7235151749151</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1387.841167119728</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T22" t="n">
-        <v>1164.055751909234</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>1073.933264355406</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V22" t="n">
-        <v>1073.933264355406</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W22" t="n">
-        <v>784.5160943184452</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>784.5160943184452</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y22" t="n">
-        <v>563.7235151749151</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="23">
@@ -5968,31 +5968,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805468</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6001,7 +6001,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6013,22 +6013,22 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6065,25 +6065,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4305.201475222093</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C25" t="n">
-        <v>4305.201475222093</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>4184.086356507268</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>4036.173262924875</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>3889.283315426964</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>4749.779469576118</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>4525.994054365623</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U25" t="n">
-        <v>4525.994054365623</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V25" t="n">
-        <v>4525.994054365623</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W25" t="n">
-        <v>4525.994054365623</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>4525.994054365623</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y25" t="n">
-        <v>4305.201475222093</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="26">
@@ -6202,52 +6202,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6259,19 +6259,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6293,13 +6293,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
@@ -6308,25 +6308,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L27" t="n">
-        <v>1196.088769018224</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M27" t="n">
-        <v>1503.408902298185</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1833.271529962218</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O27" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>268.0733921265321</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
         <v>97.21709146028584</v>
@@ -6390,10 +6390,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1187.92115703528</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>1187.92115703528</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>1187.92115703528</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>898.5039869983193</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>670.514436100302</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>449.7218569567718</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6439,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6457,58 +6457,58 @@
         <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6530,34 +6530,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>233.7852434110091</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>644.6755122555218</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L30" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M30" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6627,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U31" t="n">
-        <v>1271.749344574921</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V31" t="n">
-        <v>1017.064856369034</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="W31" t="n">
-        <v>727.647686332073</v>
+        <v>496.6650364395585</v>
       </c>
       <c r="X31" t="n">
-        <v>499.6581354340557</v>
+        <v>268.6754855415411</v>
       </c>
       <c r="Y31" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6682,7 +6682,7 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
@@ -6694,25 +6694,25 @@
         <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182377</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6724,13 +6724,13 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6770,31 +6770,31 @@
         <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H33" t="n">
         <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571608</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636248</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>986.0022165609664</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>817.0660336330595</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6864,10 +6864,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6876,34 +6876,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T34" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U34" t="n">
-        <v>986.0022165609664</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V34" t="n">
-        <v>986.0022165609664</v>
+        <v>955.1031435655742</v>
       </c>
       <c r="W34" t="n">
-        <v>986.0022165609664</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X34" t="n">
-        <v>986.0022165609664</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y34" t="n">
-        <v>986.0022165609664</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6937,28 +6937,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -6973,16 +6973,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7004,13 +7004,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
         <v>97.21709146028584</v>
@@ -7019,19 +7019,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>438.5941600866652</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="C37" t="n">
-        <v>438.5941600866652</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D37" t="n">
-        <v>438.5941600866652</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E37" t="n">
-        <v>438.5941600866652</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F37" t="n">
-        <v>291.7042125887548</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G37" t="n">
-        <v>123.5288909085754</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>123.5288909085754</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028584</v>
@@ -7101,10 +7101,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7113,34 +7113,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T37" t="n">
-        <v>1164.055751909234</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U37" t="n">
-        <v>874.9271131227918</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V37" t="n">
-        <v>620.2426249169049</v>
+        <v>1354.17636097712</v>
       </c>
       <c r="W37" t="n">
-        <v>620.2426249169049</v>
+        <v>1064.759190940159</v>
       </c>
       <c r="X37" t="n">
-        <v>620.2426249169049</v>
+        <v>836.769640042142</v>
       </c>
       <c r="Y37" t="n">
-        <v>620.2426249169049</v>
+        <v>615.9770608986119</v>
       </c>
     </row>
     <row r="38">
@@ -7153,49 +7153,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7207,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7241,13 +7241,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
         <v>97.21709146028584</v>
@@ -7256,19 +7256,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7308,13 +7308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>564.1830073829216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
         <v>97.21709146028584</v>
@@ -7338,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>1209.787631771461</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>955.1031435655738</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>955.1031435655738</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>784.9755865264517</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>564.1830073829216</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7411,19 +7411,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182377</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7478,13 +7478,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
@@ -7493,19 +7493,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>4326.074044281177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>4157.13786135327</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>4007.021221940934</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>3859.108128358541</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>3859.108128358541</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>3690.932806678361</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>3540.514798226305</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N43" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q43" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R43" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S43" t="n">
-        <v>4549.85945949167</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>4326.074044281177</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U43" t="n">
-        <v>4326.074044281177</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V43" t="n">
-        <v>4326.074044281177</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W43" t="n">
-        <v>4326.074044281177</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X43" t="n">
-        <v>4326.074044281177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>4326.074044281177</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7715,13 +7715,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
@@ -7730,19 +7730,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>493.3586382081043</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>324.4224552801974</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>324.4224552801974</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>324.4224552801974</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>177.532507782287</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>177.532507782287</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>177.532507782287</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7812,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R46" t="n">
         <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T46" t="n">
-        <v>964.1357418247858</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>675.007103038344</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>675.007103038344</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>675.007103038344</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>675.007103038344</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>675.007103038344</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8069,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8312,7 +8312,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.0269485415596</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>435.923890002883</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8768,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>5.10066308935923</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8780,16 +8780,16 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9005,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9646,7 +9646,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9959,7 +9959,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>277.6717966208069</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>96.03744927814711</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720721</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10825,7 +10825,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>324.145412571163</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720721</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>30.90698584635115</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23472,19 +23472,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>120.4049063443761</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23661,19 +23661,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>56.10120794875576</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>136.3957701267988</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23907,10 +23907,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,22 +23943,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>82.39383318338525</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>108.9203555236483</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24135,16 +24135,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>197.0160897202878</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24369,22 +24369,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>28.71150549053536</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>143.5201314619753</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24612,7 +24612,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24648,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338503</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24888,16 +24888,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>61.3420956754253</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>48.84084321165204</v>
       </c>
     </row>
     <row r="32">
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>7.212710585283389</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,22 +25128,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>61.34209567542484</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25323,7 +25323,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>84.37056401046534</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>108.8451328388531</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25551,13 +25551,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25599,10 +25599,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>82.393833183385</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25611,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>57.28337392030633</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25788,25 +25788,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>29.8734351977392</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,16 +25842,16 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26034,7 +26034,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -26043,7 +26043,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>30.90698330549084</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>192.3581855871777</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,13 +26082,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>822996.3863585984</v>
+        <v>822996.3863585982</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>822996.3863585984</v>
+        <v>822996.3863585982</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>822996.3863585981</v>
+        <v>822996.3863585982</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>822996.3863585984</v>
+        <v>822996.3863585982</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>822996.3863585985</v>
+        <v>822996.3863585982</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>822996.3863585984</v>
+        <v>822996.3863585982</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>822996.3863585984</v>
+        <v>822996.3863585982</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>822996.3863585984</v>
+        <v>822996.3863585982</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>822996.3863585984</v>
+        <v>822996.3863585982</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>595255.2831516048</v>
+      </c>
+      <c r="C2" t="n">
         <v>595255.2831516047</v>
       </c>
-      <c r="C2" t="n">
-        <v>595255.2831516048</v>
-      </c>
       <c r="D2" t="n">
-        <v>595255.2831516047</v>
+        <v>595255.2831516049</v>
       </c>
       <c r="E2" t="n">
-        <v>566992.1366196775</v>
+        <v>566992.1366196781</v>
       </c>
       <c r="F2" t="n">
         <v>566992.1366196779</v>
       </c>
       <c r="G2" t="n">
-        <v>566992.1366196779</v>
+        <v>566992.1366196781</v>
       </c>
       <c r="H2" t="n">
         <v>566992.136619678</v>
       </c>
       <c r="I2" t="n">
+        <v>566992.136619678</v>
+      </c>
+      <c r="J2" t="n">
+        <v>566992.1366196779</v>
+      </c>
+      <c r="K2" t="n">
+        <v>566992.1366196781</v>
+      </c>
+      <c r="L2" t="n">
         <v>566992.1366196777</v>
-      </c>
-      <c r="J2" t="n">
-        <v>566992.136619678</v>
-      </c>
-      <c r="K2" t="n">
-        <v>566992.1366196779</v>
-      </c>
-      <c r="L2" t="n">
-        <v>566992.1366196778</v>
       </c>
       <c r="M2" t="n">
         <v>566992.1366196779</v>
       </c>
       <c r="N2" t="n">
-        <v>566992.136619678</v>
+        <v>566992.1366196778</v>
       </c>
       <c r="O2" t="n">
-        <v>566992.1366196778</v>
+        <v>566992.1366196775</v>
       </c>
       <c r="P2" t="n">
-        <v>566992.1366196779</v>
+        <v>566992.1366196777</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768964</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26432,34 +26432,34 @@
         <v>22174.60758687071</v>
       </c>
       <c r="G4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="H4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687066</v>
       </c>
       <c r="I4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="K4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="L4" t="n">
-        <v>22174.60758687075</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="M4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="N4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="O4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="P4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
     </row>
     <row r="5">
@@ -26478,40 +26478,40 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="H5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="I5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="J5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>-243204.5419128736</v>
       </c>
       <c r="C6" t="n">
-        <v>346763.337301671</v>
+        <v>346763.3373016709</v>
       </c>
       <c r="D6" t="n">
-        <v>346763.3373016708</v>
+        <v>346763.3373016712</v>
       </c>
       <c r="E6" t="n">
-        <v>-72329.83339280594</v>
+        <v>-73304.42465252726</v>
       </c>
       <c r="F6" t="n">
-        <v>452830.2030840906</v>
+        <v>451855.6118243689</v>
       </c>
       <c r="G6" t="n">
-        <v>452830.2030840906</v>
+        <v>451855.6118243689</v>
       </c>
       <c r="H6" t="n">
-        <v>452830.2030840907</v>
+        <v>451855.611824369</v>
       </c>
       <c r="I6" t="n">
-        <v>452830.2030840904</v>
+        <v>451855.611824369</v>
       </c>
       <c r="J6" t="n">
-        <v>276406.9838914978</v>
+        <v>275432.3926317759</v>
       </c>
       <c r="K6" t="n">
-        <v>452830.2030840906</v>
+        <v>451855.6118243692</v>
       </c>
       <c r="L6" t="n">
-        <v>452830.2030840905</v>
+        <v>451855.6118243687</v>
       </c>
       <c r="M6" t="n">
-        <v>318029.1878502534</v>
+        <v>317054.5965905316</v>
       </c>
       <c r="N6" t="n">
-        <v>452830.2030840907</v>
+        <v>451855.6118243688</v>
       </c>
       <c r="O6" t="n">
-        <v>452830.2030840905</v>
+        <v>451855.6118243686</v>
       </c>
       <c r="P6" t="n">
-        <v>452830.2030840906</v>
+        <v>451855.6118243687</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26746,40 +26746,40 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370138</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>218.8388043680905</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -27441,13 +27441,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>216.5961054773863</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27545,22 +27545,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,13 +27581,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>17.8816912783675</v>
       </c>
       <c r="S4" t="n">
-        <v>67.05000524255678</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27596,10 +27596,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27621,16 +27621,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>23.03118778159273</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27663,22 +27663,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>157.5465377523935</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27776,19 +27776,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27824,13 +27824,13 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>223.2651973864997</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27855,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>234.3617783498665</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27915,10 +27915,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>273.3694675023659</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,31 +28010,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>149.2278925609831</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>147.3386126086627</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28061,7 +28061,7 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28076,7 +28076,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -29754,7 +29754,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31928,10 +31928,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31940,19 +31940,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,10 +32226,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32238,37 +32238,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32311,31 +32311,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32344,7 +32344,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,10 +32639,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,10 +32876,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33113,10 +33113,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33125,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,46 +33253,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33350,10 +33350,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33362,19 +33362,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,46 +33490,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33575,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33587,10 +33587,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33599,19 +33599,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33812,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33824,10 +33824,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33836,19 +33836,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34061,10 +34061,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34073,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34298,10 +34298,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34310,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34523,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34535,10 +34535,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34547,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35032,7 +35032,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.205405775187</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,7 +35263,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>515.9012490932197</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
@@ -35412,28 +35412,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>47.01084204426594</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P12" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R12" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K17" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,19 +36041,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36062,7 +36062,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,28 +36123,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,22 +36202,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,28 +36360,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
         <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,22 +36439,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,28 +36597,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,28 +36676,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>526.9295015768312</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,28 +36834,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,25 +36910,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>137.9476282330538</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415063</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,22 +37150,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,28 +37308,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,22 +37387,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,28 +37545,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303314</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,22 +37624,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415063</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,22 +37861,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,28 +38019,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,22 +38098,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_3_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_3_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2459095.302326577</v>
+        <v>2464034.565175609</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>110.1469255124063</v>
       </c>
       <c r="W2" t="n">
-        <v>132.6448632400267</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>128.7835007017903</v>
+        <v>83.58354151325328</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -907,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>390.7529822392023</v>
+        <v>101.3341794774131</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>59.66385641544537</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>10.03156470826291</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1144,10 +1144,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>96.3616331761031</v>
+        <v>325.2557485598865</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>30.60408762095418</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896921</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1435,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>91.09720239620631</v>
       </c>
       <c r="E13" t="n">
-        <v>115.526976800218</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,22 +1764,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>6.873165368858299</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>89.31984007417549</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1830,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1858,13 +1858,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896922</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2052,16 +2052,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>139.153727875004</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>149.0799667719512</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>115.526976800218</v>
+        <v>55.72442649149379</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2301,7 +2301,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>29.18937547121065</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>203.8435192151921</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="27">
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>157.2425576766694</v>
       </c>
       <c r="T28" t="n">
-        <v>139.1537278750042</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
@@ -3009,7 +3009,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>169.7438101404427</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
@@ -3249,13 +3249,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>225.1809026611662</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3274,7 +3274,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3429,16 +3429,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3483,10 +3483,10 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>143.2925104849749</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>155.8385935972304</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>115.5269768002183</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151917</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>143.3158222056519</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>5.562624396425565</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>33.35146980185857</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1568.353113282533</v>
+        <v>1937.315630222944</v>
       </c>
       <c r="C2" t="n">
         <v>1568.353113282533</v>
@@ -4333,10 +4333,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U2" t="n">
-        <v>2465.942913862886</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V2" t="n">
-        <v>2465.942913862886</v>
+        <v>1937.315630222944</v>
       </c>
       <c r="W2" t="n">
-        <v>2331.958203519424</v>
+        <v>1937.315630222944</v>
       </c>
       <c r="X2" t="n">
-        <v>1958.492445258345</v>
+        <v>1937.315630222944</v>
       </c>
       <c r="Y2" t="n">
-        <v>1568.353113282533</v>
+        <v>1937.315630222944</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4421,13 +4421,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4512,28 +4512,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>598.0446400632119</v>
+        <v>643.7011644960776</v>
       </c>
       <c r="S4" t="n">
-        <v>598.0446400632119</v>
+        <v>643.7011644960776</v>
       </c>
       <c r="T4" t="n">
-        <v>598.0446400632119</v>
+        <v>643.7011644960776</v>
       </c>
       <c r="U4" t="n">
-        <v>598.0446400632119</v>
+        <v>643.7011644960776</v>
       </c>
       <c r="V4" t="n">
-        <v>343.360151857325</v>
+        <v>389.0166762901907</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
     </row>
     <row r="5">
@@ -4546,22 +4546,22 @@
         <v>936.2491605982757</v>
       </c>
       <c r="C5" t="n">
-        <v>936.2491605982757</v>
+        <v>567.286643657864</v>
       </c>
       <c r="D5" t="n">
-        <v>936.2491605982757</v>
+        <v>567.286643657864</v>
       </c>
       <c r="E5" t="n">
-        <v>936.2491605982757</v>
+        <v>567.286643657864</v>
       </c>
       <c r="F5" t="n">
-        <v>929.3036598490722</v>
+        <v>156.3007388682565</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4570,16 +4570,16 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4646,22 +4646,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>210.9658229629848</v>
       </c>
       <c r="C7" t="n">
-        <v>667.8624625746712</v>
+        <v>210.9658229629848</v>
       </c>
       <c r="D7" t="n">
-        <v>517.7458231623355</v>
+        <v>210.9658229629848</v>
       </c>
       <c r="E7" t="n">
-        <v>369.8327295799424</v>
+        <v>210.9658229629848</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>64.07587546507446</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4758,19 +4758,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>210.9658229629848</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>210.9658229629848</v>
       </c>
     </row>
     <row r="8">
@@ -4792,7 +4792,7 @@
         <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
         <v>53.94298182036445</v>
@@ -4828,22 +4828,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X8" t="n">
         <v>2368.607930856721</v>
@@ -4889,10 +4889,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5020,16 +5020,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
@@ -5038,49 +5038,49 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
         <v>3205.060556590537</v>
@@ -5117,31 +5117,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>143.7578250841092</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>292.8275092861691</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>539.5926371926332</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>846.912770472595</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N12" t="n">
-        <v>1651.324348736746</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>2320.788110039405</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2525.810590821615</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>213.9110074201021</v>
+        <v>484.0375086983735</v>
       </c>
       <c r="C13" t="n">
-        <v>213.9110074201021</v>
+        <v>484.0375086983735</v>
       </c>
       <c r="D13" t="n">
-        <v>213.9110074201021</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028587</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347409</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>986.0022165609669</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V13" t="n">
-        <v>731.31772835508</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W13" t="n">
-        <v>441.9005583181194</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X13" t="n">
-        <v>213.9110074201021</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="Y13" t="n">
-        <v>213.9110074201021</v>
+        <v>665.6859735286132</v>
       </c>
     </row>
     <row r="14">
@@ -5275,13 +5275,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5296,13 +5296,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231264</v>
@@ -5354,16 +5354,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341674</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
         <v>1247.466478653857</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>506.0324822735073</v>
+        <v>549.3807322743211</v>
       </c>
       <c r="C16" t="n">
-        <v>506.0324822735073</v>
+        <v>549.3807322743211</v>
       </c>
       <c r="D16" t="n">
-        <v>506.0324822735073</v>
+        <v>542.438140992646</v>
       </c>
       <c r="E16" t="n">
-        <v>506.0324822735073</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F16" t="n">
-        <v>415.8104215925219</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G16" t="n">
         <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5442,10 +5442,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5466,22 +5466,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V16" t="n">
-        <v>1244.231782352015</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W16" t="n">
-        <v>954.8146123150548</v>
+        <v>731.0291971045608</v>
       </c>
       <c r="X16" t="n">
-        <v>726.8250614170374</v>
+        <v>731.0291971045608</v>
       </c>
       <c r="Y16" t="n">
-        <v>506.0324822735073</v>
+        <v>731.0291971045608</v>
       </c>
     </row>
     <row r="17">
@@ -5506,19 +5506,19 @@
         <v>904.3190116155899</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805464</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
@@ -5527,16 +5527,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014293</v>
@@ -5582,25 +5582,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571611</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636253</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M18" t="n">
         <v>1228.513823643587</v>
@@ -5649,37 +5649,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
         <v>779.0639759471194</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T19" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011507</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952638</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028587</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5749,13 +5749,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5767,19 +5767,19 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
@@ -5828,25 +5828,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1382.222354598087</v>
+        <v>1442.628971071545</v>
       </c>
       <c r="T22" t="n">
-        <v>1158.436939387592</v>
+        <v>1218.843555861051</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011507</v>
+        <v>929.7149170746092</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952638</v>
+        <v>675.0304288687223</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>675.0304288687223</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028587</v>
+        <v>447.040877970705</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028587</v>
+        <v>447.040877970705</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805468</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822459</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6013,28 +6013,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6065,25 +6065,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028587</v>
+        <v>126.7013091079734</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028587</v>
+        <v>126.7013091079734</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028587</v>
+        <v>126.7013091079734</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028587</v>
+        <v>126.7013091079734</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>126.7013091079734</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.210845262961</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011507</v>
+        <v>898.7925182488382</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952638</v>
+        <v>644.1080300429513</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>354.6908600059907</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028587</v>
+        <v>126.7013091079734</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028587</v>
+        <v>126.7013091079734</v>
       </c>
     </row>
     <row r="26">
@@ -6202,61 +6202,61 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
         <v>4262.3578574653</v>
@@ -6271,7 +6271,7 @@
         <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6296,31 +6296,31 @@
         <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
         <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K27" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6390,10 +6390,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1340.085404217832</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387592</v>
+        <v>1340.085404217832</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011506</v>
+        <v>1050.956765431391</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952637</v>
+        <v>796.2722772255036</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>506.8551071885429</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="29">
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6448,43 +6448,43 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6499,16 +6499,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6530,13 +6530,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
         <v>97.21709146028584</v>
@@ -6545,19 +6545,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636251</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.37645130762</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526317</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6627,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,31 +6639,31 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T31" t="n">
-        <v>1075.210845262961</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>786.0822064765191</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>786.0822064765191</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>496.6650364395585</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>268.6754855415411</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
         <v>97.21709146028584</v>
@@ -6688,40 +6688,40 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.881333182377</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6767,13 +6767,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
         <v>97.21709146028584</v>
@@ -6782,19 +6782,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6864,10 +6864,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6876,34 +6876,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557903</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>1209.787631771461</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>955.1031435655742</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>727.647686332073</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>499.6581354340557</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6931,58 +6931,58 @@
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7004,34 +7004,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>434.3285960683721</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C37" t="n">
-        <v>265.3924131404652</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D37" t="n">
-        <v>265.3924131404652</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E37" t="n">
-        <v>265.3924131404652</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F37" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7101,10 +7101,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7113,34 +7113,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V37" t="n">
-        <v>1354.17636097712</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W37" t="n">
-        <v>1064.759190940159</v>
+        <v>1341.503549752619</v>
       </c>
       <c r="X37" t="n">
-        <v>836.769640042142</v>
+        <v>1113.513998854602</v>
       </c>
       <c r="Y37" t="n">
-        <v>615.9770608986119</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
     <row r="38">
@@ -7168,37 +7168,37 @@
         <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7241,34 +7241,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7338,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011506</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952637</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W40" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="41">
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7402,28 +7402,28 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.881333182377</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7435,7 +7435,7 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7444,19 +7444,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7478,34 +7478,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7575,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T43" t="n">
-        <v>1075.210845262961</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
-        <v>786.0822064765191</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V43" t="n">
-        <v>531.3977182706323</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W43" t="n">
-        <v>241.9805482336716</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="44">
@@ -7627,70 +7627,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7715,13 +7715,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
@@ -7730,19 +7730,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7812,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,28 +7824,28 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
         <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1382.222354598086</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T46" t="n">
-        <v>1158.436939387592</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011506</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952637</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X46" t="n">
         <v>97.21709146028584</v>
@@ -8069,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8312,7 +8312,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.02694854156</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8537,13 +8537,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>5.10066308935923</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8777,13 +8777,13 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9014,7 +9014,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>409.700368322958</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776744</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10196,7 +10196,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720721</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10825,7 +10825,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.145412571163</v>
+        <v>324.1454125711659</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720721</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928307</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>57.51827062200604</v>
       </c>
       <c r="E13" t="n">
-        <v>30.90698584635115</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23469,7 +23469,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23652,22 +23652,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>141.742307649354</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>56.10120794875576</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23706,7 +23706,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23940,16 +23940,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>82.39383318338525</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>103.0576765518768</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24141,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24177,7 +24177,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>82.39383318338523</v>
+        <v>142.1963834921094</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24189,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>137.3041929921669</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>82.39383318338523</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24511,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
     </row>
     <row r="27">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24651,10 +24651,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>40.67825230693387</v>
       </c>
       <c r="T28" t="n">
-        <v>82.39383318338503</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>48.84084321165204</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25125,10 +25125,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25137,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>61.34209567542484</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25317,16 +25317,16 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -25371,10 +25371,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>108.8451328388531</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>130.6844047393606</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25599,13 +25599,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>82.393833183385</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>82.39383318338523</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>192.3581855871777</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>192.3581855871786</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>822996.3863585982</v>
+        <v>822996.3863585981</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>822996.3863585982</v>
+        <v>822996.3863585981</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>822996.3863585982</v>
+        <v>822996.3863585984</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>822996.3863585982</v>
+        <v>822996.386358598</v>
       </c>
     </row>
     <row r="11">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>595255.2831516044</v>
+      </c>
+      <c r="C2" t="n">
         <v>595255.2831516048</v>
       </c>
-      <c r="C2" t="n">
-        <v>595255.2831516047</v>
-      </c>
       <c r="D2" t="n">
-        <v>595255.2831516049</v>
+        <v>595255.2831516048</v>
       </c>
       <c r="E2" t="n">
-        <v>566992.1366196781</v>
+        <v>566992.136619678</v>
       </c>
       <c r="F2" t="n">
         <v>566992.1366196779</v>
       </c>
       <c r="G2" t="n">
-        <v>566992.1366196781</v>
+        <v>566992.136619678</v>
       </c>
       <c r="H2" t="n">
         <v>566992.136619678</v>
       </c>
       <c r="I2" t="n">
+        <v>566992.1366196781</v>
+      </c>
+      <c r="J2" t="n">
         <v>566992.136619678</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
+        <v>566992.136619678</v>
+      </c>
+      <c r="L2" t="n">
         <v>566992.1366196779</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>566992.1366196781</v>
       </c>
-      <c r="L2" t="n">
-        <v>566992.1366196777</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>566992.1366196779</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>566992.1366196778</v>
       </c>
-      <c r="O2" t="n">
-        <v>566992.1366196775</v>
-      </c>
       <c r="P2" t="n">
-        <v>566992.1366196777</v>
+        <v>566992.136619678</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768964</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26432,34 +26432,34 @@
         <v>22174.60758687071</v>
       </c>
       <c r="G4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="H4" t="n">
-        <v>22174.60758687066</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="I4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="K4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="L4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="M4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="N4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="O4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="P4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
     </row>
     <row r="5">
@@ -26478,28 +26478,28 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="G5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="G5" t="n">
-        <v>91987.32594871665</v>
-      </c>
       <c r="H5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871664</v>
@@ -26511,7 +26511,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-243204.5419128736</v>
+        <v>-243204.541912874</v>
       </c>
       <c r="C6" t="n">
         <v>346763.3373016709</v>
       </c>
       <c r="D6" t="n">
-        <v>346763.3373016712</v>
+        <v>346763.3373016709</v>
       </c>
       <c r="E6" t="n">
-        <v>-73304.42465252726</v>
+        <v>-72427.29251877764</v>
       </c>
       <c r="F6" t="n">
-        <v>451855.6118243689</v>
+        <v>452732.7439581184</v>
       </c>
       <c r="G6" t="n">
-        <v>451855.6118243689</v>
+        <v>452732.7439581183</v>
       </c>
       <c r="H6" t="n">
-        <v>451855.611824369</v>
+        <v>452732.7439581187</v>
       </c>
       <c r="I6" t="n">
-        <v>451855.611824369</v>
+        <v>452732.7439581187</v>
       </c>
       <c r="J6" t="n">
-        <v>275432.3926317759</v>
+        <v>276309.5247655256</v>
       </c>
       <c r="K6" t="n">
-        <v>451855.6118243692</v>
+        <v>452732.7439581185</v>
       </c>
       <c r="L6" t="n">
-        <v>451855.6118243687</v>
+        <v>452732.7439581184</v>
       </c>
       <c r="M6" t="n">
-        <v>317054.5965905316</v>
+        <v>317931.7287242814</v>
       </c>
       <c r="N6" t="n">
-        <v>451855.6118243688</v>
+        <v>452732.7439581184</v>
       </c>
       <c r="O6" t="n">
-        <v>451855.6118243686</v>
+        <v>452732.7439581183</v>
       </c>
       <c r="P6" t="n">
-        <v>451855.6118243687</v>
+        <v>452732.7439581185</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="F3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="G3" t="n">
         <v>830.3824054541004</v>
       </c>
-      <c r="F3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="G3" t="n">
-        <v>830.3824054541005</v>
-      </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370138</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27426,28 +27426,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>217.6053329577286</v>
       </c>
       <c r="W2" t="n">
-        <v>216.5961054773863</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>17.8816912783675</v>
+        <v>63.08165046690455</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27618,7 +27618,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27627,16 +27627,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>23.03118778159273</v>
+        <v>312.4499905433819</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27776,19 +27776,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>107.5829646831825</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>157.278237550788</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27830,7 +27830,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27864,10 +27864,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27918,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>273.3694675023659</v>
+        <v>44.47535211858258</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>149.2278925609831</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31928,10 +31928,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31940,19 +31940,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
         <v>34.18755300444946</v>
@@ -32247,13 +32247,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647497</v>
@@ -32268,7 +32268,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32323,7 +32323,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N18" t="n">
         <v>464.5362854813463</v>
@@ -32344,7 +32344,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32384,10 +32384,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
         <v>45.03122946298631</v>
@@ -32396,10 +32396,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
         <v>234.725964217132</v>
@@ -32408,7 +32408,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
@@ -32420,13 +32420,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,10 +32639,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,10 +32876,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33113,10 +33113,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33125,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,46 +33253,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33350,10 +33350,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33362,19 +33362,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,46 +33490,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33575,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33587,10 +33587,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33599,19 +33599,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33812,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33824,10 +33824,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33836,19 +33836,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34061,10 +34061,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34073,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34298,10 +34298,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34310,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34523,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34535,10 +34535,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34547,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34789,7 +34789,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35032,7 +35032,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35257,13 +35257,13 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
@@ -35412,28 +35412,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>47.01084204426594</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415666</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507416</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
@@ -35734,19 +35734,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734243</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
         <v>528.6897561303331</v>
@@ -35895,19 +35895,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081121</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005179</v>
@@ -35974,16 +35974,16 @@
         <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091992</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
@@ -36050,7 +36050,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056037</v>
@@ -36062,7 +36062,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,28 +36123,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,22 +36202,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,28 +36360,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,22 +36439,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,28 +36597,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,22 +36676,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,28 +36834,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,22 +36913,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560244</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091996</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415063</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,22 +37150,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,28 +37308,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349674</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,22 +37387,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,28 +37545,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303314</v>
+        <v>528.6897561303341</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,22 +37624,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415063</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,22 +37861,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,28 +38019,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.32965022211</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,22 +38098,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
